--- a/biology/Botanique/Jardins_de_Pinjore/Jardins_de_Pinjore.xlsx
+++ b/biology/Botanique/Jardins_de_Pinjore/Jardins_de_Pinjore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de Pinjore (aussi appelés comme jardins de Yadavindra) sont situés à Pinjore (en), dans le district de Panchkula, dans l'État indien de Haryana.
@@ -513,7 +525,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin se trouve dans le village de Pinjore, à 22 km de Chandigarh sur la route entre Ambala et Shimla. Pinjore, où se trouve le complexe de temples Bhima Devi, est accessible par la route, mais aussi par chemin de fer et par avion de tout le pays. Il est bien relié à Chandigarh, qui est la capitale de l'Haryana et du Pendjab. 
 Les jardins se situent à cinq kilomètres de Kalka, sur la route de Shimla.
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins furent créés au XVIIe siècle par l'architecte Nawab Fidai Khan durant le début du règne de son frère adoptif Aurangzeb, qui régna entre 1658 et 1707. Ils furent renommés récemment "jardins de Yadavindra" en mémoire du maharaja Yadavindra Singh, de l'ancien État princier de Patiala.
 Le jardin fut rénové par Yadevendra Singh plus tard, car il avait été abandonné pendant de longues années et une jungle sauvage y avait poussé.
@@ -582,7 +598,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins sont répartis sur sept terrasses, la porte principale du jardin s'ouvre de la plus haute terrasse, où se trouve un palais de style moghol-rajasthani appelé “Shish Mahal” (palais de verre), qui est relié au romantique "Hawa Mahal" (palais aéré). La deuxième terrasse, avec ses portes voûtées renferme le "Rang Mahal" (palais peint). La troisième terrasse présente des cyprès et des parterres de fleurs, conduisant à de denses bosquets d'arbres fruitiers. Sur la quatrième terrasse se trouve le "Jal Mahal" (palais d'eau), avec son lit-fontaine carré et une plate-forme pour se détendre. La terrasse suivante présente des fontaines, puis une oliveraie. La plus basse terrasse est aménagée en théâtre de plein air, conçu en forme de disque. 
 </t>
@@ -615,14 +633,124 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musée des jardins de Pinjore
-Le jardin et le complexe de temples proposent un musée en plein air, mis en place par la  direction de l'archéologie et des musées d'État de Haryana 
-Train patrimonial
-Un train colonial restauré est exploité pour permettre de circuler rapidement vers tous les monuments et jardins du complexe.
-Zoo de Pinjore
-Un zoo jouxte les jardins.
-Festivals des jardins de Pinjore
-Plusieurs festivals se déroulent dans les jardins, comme le Pinjore Baisakhi festival en avril et le Pinjore Mango festival de juin à juillet ; ils sont une des principales attractions des jardins.
+          <t>Musée des jardins de Pinjore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin et le complexe de temples proposent un musée en plein air, mis en place par la  direction de l'archéologie et des musées d'État de Haryana 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardins_de_Pinjore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Pinjore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Autour des jardins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Train patrimonial</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un train colonial restauré est exploité pour permettre de circuler rapidement vers tous les monuments et jardins du complexe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardins_de_Pinjore</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Pinjore</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autour des jardins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Zoo de Pinjore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un zoo jouxte les jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardins_de_Pinjore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Pinjore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autour des jardins</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Festivals des jardins de Pinjore</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs festivals se déroulent dans les jardins, comme le Pinjore Baisakhi festival en avril et le Pinjore Mango festival de juin à juillet ; ils sont une des principales attractions des jardins.
 </t>
         </is>
       </c>
